--- a/Test task.xlsx
+++ b/Test task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-кейсы" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>5</t>
   </si>
@@ -711,9 +711,6 @@
     <t>При нажатии на ссылку "Все навыки" открывается ссылка: https://dialogs.yandex.ru/store/essentials?utm_source=Yandex_Alisa&amp;utm_medium=onboarding</t>
   </si>
   <si>
-    <t>Файлы:</t>
-  </si>
-  <si>
     <t>Открывается неправильная ссылка</t>
   </si>
   <si>
@@ -724,6 +721,12 @@
   </si>
   <si>
     <t>video_2023-11-16_20-19-17</t>
+  </si>
+  <si>
+    <t>Файлы:                                           (видео тестирования)</t>
+  </si>
+  <si>
+    <t>Файлы:                                          (видео тестирования)</t>
   </si>
 </sst>
 </file>
@@ -961,21 +964,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,51 +1027,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1039,24 +1045,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1070,7 +1070,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,58 +1357,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1438,102 +1441,102 @@
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="207" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -1549,102 +1552,102 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -1660,100 +1663,100 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="8" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -1769,85 +1772,85 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="8" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="7"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -1863,100 +1866,100 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="8" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
     </row>
     <row r="42" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
     </row>
     <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
     </row>
     <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="7"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -1972,73 +1975,73 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="8" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
     </row>
     <row r="51" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="24"/>
@@ -2066,85 +2069,85 @@
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="8" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="10"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
     </row>
     <row r="59" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="7"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="14"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
@@ -2160,71 +2163,121 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="8" t="s">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="10"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="23"/>
     </row>
     <row r="67" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
     </row>
     <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
     </row>
     <row r="69" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="23"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="F66:K66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="F67:K67"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="F59:K59"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:K51"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="F58:K58"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:K15"/>
     <mergeCell ref="A44:K44"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A69:K69"/>
@@ -2241,56 +2294,6 @@
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="F59:K59"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="F51:K51"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="F58:K58"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="F66:K66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="F67:K67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2301,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,421 +2314,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-    </row>
-    <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="28" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-    </row>
-    <row r="23" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-    </row>
-    <row r="24" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:L17"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:L28"/>
     <mergeCell ref="A8:C8"/>
@@ -2742,30 +2768,8 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:L22"/>
     <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="C2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>